--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="3" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'3'!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'4'!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>驗證功效</t>
   </si>
@@ -434,7 +436,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,6 +535,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +872,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -878,15 +892,15 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -988,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1009,17 +1023,17 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35"/>
+      <c r="D1" s="39"/>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -1210,14 +1224,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="10"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="17">
+        <f>COUNTA(B4:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="34">
+        <f>SUM(C4:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1232,4 +1364,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+</worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="3" sheetId="2" r:id="rId2"/>
     <sheet name="4" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'3'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'4'!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>驗證功效</t>
   </si>
@@ -85,6 +87,22 @@
   <si>
     <t>服用方式</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>党参</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮汤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,7 +454,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +553,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,15 +922,15 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1023,17 +1053,17 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="43"/>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -1226,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1247,15 +1277,15 @@
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
@@ -1355,14 +1385,150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="33">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="33">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="33">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="33">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="17">
+        <f>COUNTA(B4:B13)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="38">
+        <f>SUM(C4:C13)</f>
+        <v>40</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1377,4 +1543,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+</worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="10200"/>
+    <workbookView windowWidth="19095" windowHeight="10200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="4" sheetId="3" r:id="rId3"/>
     <sheet name="5" sheetId="4" r:id="rId4"/>
     <sheet name="8" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="9" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -21,13 +22,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'4'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'8'!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'9'!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>驗證功效</t>
   </si>
@@ -39,6 +41,9 @@
   </si>
   <si>
     <t>用量(g)</t>
+  </si>
+  <si>
+    <t>处理方式</t>
   </si>
   <si>
     <t>本次取其藥性</t>
@@ -105,86 +110,401 @@
     <t>辛夷</t>
   </si>
   <si>
+    <t>(包煎)</t>
+  </si>
+  <si>
     <t>黃芪</t>
   </si>
   <si>
-    <t>(包煎)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>服用方式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>包煎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -224,6 +544,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -463,170 +794,435 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="52">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="1"/>
+  <cellStyles count="52">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="12" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="13" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="14"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="18" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="19" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="22" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="23" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="24" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="25" builtinId="28"/>
+    <cellStyle name="Bad" xfId="26" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="28" builtinId="42"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Output" xfId="30" builtinId="21"/>
+    <cellStyle name="Note" xfId="31" builtinId="10"/>
+    <cellStyle name="Input" xfId="32" builtinId="20"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="34" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="35" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="36" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="39" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="40" builtinId="35"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="42" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="43" builtinId="53"/>
+    <cellStyle name="Currency" xfId="44" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="45" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="47" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="49" builtinId="17"/>
+    <cellStyle name="Comma" xfId="50" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="51" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -635,7 +1231,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -916,140 +1512,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15">
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
-        <v>8</v>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1057,223 +1654,224 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.2518518518519" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="123" customHeight="1" spans="2:8">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="35"/>
+      <c r="C1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:8">
+      <c r="B2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="29">
         <v>10</v>
       </c>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="D3" s="12"/>
+      <c r="F3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="31">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="25">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14">
         <v>10</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="D4" s="15"/>
+      <c r="F4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="33">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:8">
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="D5" s="15"/>
+      <c r="F5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="35">
         <v>10</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="29">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="33">
         <v>10</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14">
         <v>10</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:8">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:8">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:8">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="20">
         <f>COUNTA(B3:B12)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="32">
+      <c r="G13" s="38">
         <f>COUNTA(F3:F12)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:8">
       <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
         <f>SUM(C3:C12)</f>
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="33">
+      <c r="G14" s="39">
         <f>SUM(G3:G12)</f>
         <v>50</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>8</v>
+      <c r="H14" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1281,130 +1879,131 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15">
+    </row>
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>8</v>
+      <c r="D15" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1412,148 +2011,149 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>8</v>
+      <c r="D15" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1561,154 +2161,155 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="14">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9">
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14">
         <v>10</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>50</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>8</v>
+      <c r="D15" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1716,34 +2317,203 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>30</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="10200" activeTab="5"/>
+    <workbookView windowWidth="19095" windowHeight="10200" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="5" sheetId="4" r:id="rId4"/>
     <sheet name="8" sheetId="5" r:id="rId5"/>
     <sheet name="9" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="10" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -23,13 +24,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'8'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'9'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'10'!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>驗證功效</t>
   </si>
@@ -117,6 +119,9 @@
   </si>
   <si>
     <t>包煎</t>
+  </si>
+  <si>
+    <t>当归</t>
   </si>
 </sst>
 </file>
@@ -125,12 +130,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,29 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -190,8 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +211,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -244,7 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,16 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,14 +265,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,14 +287,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +788,80 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,80 +884,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -893,158 +891,158 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2023,7 +2021,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
@@ -2173,7 +2171,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
@@ -2328,8 +2326,8 @@
   <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
@@ -2349,7 +2347,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -2357,7 +2355,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
@@ -2489,15 +2487,162 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>40</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2516,4 +2661,20 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="10200" activeTab="6"/>
+    <workbookView windowWidth="19095" windowHeight="10200" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="8" sheetId="5" r:id="rId5"/>
     <sheet name="9" sheetId="6" r:id="rId6"/>
     <sheet name="10" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
+    <sheet name="11" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -25,13 +26,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'8'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'9'!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'10'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'11'!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>驗證功效</t>
   </si>
@@ -122,6 +124,30 @@
   </si>
   <si>
     <t>当归</t>
+  </si>
+  <si>
+    <t>解鬱,寬心</t>
+  </si>
+  <si>
+    <t>柴胡</t>
+  </si>
+  <si>
+    <t>白芍</t>
+  </si>
+  <si>
+    <t>白术</t>
+  </si>
+  <si>
+    <t>生姜</t>
+  </si>
+  <si>
+    <t>炙甘草</t>
+  </si>
+  <si>
+    <t>合歡皮</t>
+  </si>
+  <si>
+    <t>夜交藤</t>
   </si>
 </sst>
 </file>
@@ -130,10 +156,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -164,9 +190,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,83 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,43 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,13 +343,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +421,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,19 +481,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,133 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,6 +818,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -806,6 +847,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,32 +881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -866,21 +896,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -889,6 +904,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -897,152 +923,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1658,6 +1684,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
@@ -2489,7 +2531,7 @@
   <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2510,7 +2552,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -2518,7 +2560,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
@@ -2650,15 +2692,182 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="14">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="10200" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="10200" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="9" sheetId="6" r:id="rId6"/>
     <sheet name="10" sheetId="7" r:id="rId7"/>
     <sheet name="11" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="12" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'10'!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'11'!$A$1:$E$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'12'!$A$1:$E$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'3'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'4'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
   <si>
     <t>驗證功效</t>
   </si>
@@ -521,7 +523,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,6 +622,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,17 +993,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1103,6 +1117,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1140,17 +1167,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="36"/>
+      <c r="C1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="40"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
@@ -1364,15 +1391,15 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1495,17 +1522,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1644,17 +1671,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1799,17 +1826,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1961,17 +1988,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2102,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2123,19 +2150,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2300,13 +2327,188 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="36">
+        <v>15</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="36">
+        <v>15</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="36">
+        <v>15</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="36">
+        <v>10</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="36">
+        <v>10</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="36">
+        <v>10</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="36">
+        <v>10</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="15">
+        <f>COUNTA(B4:B14)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="34">
+        <f>SUM(C4:C14)</f>
+        <v>100</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="10200" activeTab="8"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="9" sheetId="6" r:id="rId6"/>
     <sheet name="10" sheetId="7" r:id="rId7"/>
     <sheet name="11" sheetId="8" r:id="rId8"/>
-    <sheet name="12" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId11"/>
+    <sheet name="12" sheetId="9" r:id="rId9"/>
+    <sheet name="13" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -29,13 +30,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'8'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'9'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'13'!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>驗證功效</t>
   </si>
@@ -152,76 +154,404 @@
     <t>夜交藤</t>
   </si>
   <si>
-    <t>山楂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>麦芽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>木香</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>枳殼</t>
+  </si>
+  <si>
+    <t>桔梗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -510,176 +840,440 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="53">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 4" xfId="1"/>
+  <cellStyles count="53">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="11"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="14" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="19" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="22" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="23" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="24" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="26" builtinId="28"/>
+    <cellStyle name="Bad" xfId="27" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="29" builtinId="42"/>
+    <cellStyle name="Total" xfId="30" builtinId="25"/>
+    <cellStyle name="Output" xfId="31" builtinId="21"/>
+    <cellStyle name="Note" xfId="32" builtinId="10"/>
+    <cellStyle name="Input" xfId="33" builtinId="20"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="35" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="36" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="37" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="41" builtinId="35"/>
+    <cellStyle name="Title" xfId="42" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="43" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="44" builtinId="53"/>
+    <cellStyle name="Currency" xfId="45" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="46" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="48" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="50" builtinId="17"/>
+    <cellStyle name="Comma" xfId="51" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="52" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -688,7 +1282,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -969,139 +1563,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1110,248 +1705,442 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="14">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>9</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>115</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.2518518518519" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="123" customHeight="1" spans="2:8">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="40"/>
+      <c r="C1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="19" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:8">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="22" t="s">
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="29">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="F3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="31">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="14">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="F4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="27">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="33">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:8">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="28" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="F5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="29">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="26" t="s">
+      <c r="G5" s="35">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="27">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="8" t="s">
+      <c r="G6" s="33">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:8">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:8">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:8">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="20">
         <f>COUNTA(B3:B12)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="38">
         <f>COUNTA(F3:F12)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="2:8">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <f>SUM(C3:C12)</f>
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="39">
         <f>SUM(G3:G12)</f>
         <v>50</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1360,129 +2149,130 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1491,147 +2281,148 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1640,153 +2431,154 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>50</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1795,160 +2587,161 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>30</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1957,160 +2750,161 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2119,198 +2913,199 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
+      <c r="C14" s="17">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="20">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <f>SUM(C4:C14)</f>
         <v>130</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2319,186 +3114,187 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="37" t="s">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="36">
-        <v>10</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="36">
-        <v>10</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="36">
-        <v>10</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="36">
-        <v>10</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="20">
         <f>COUNTA(B4:B14)</f>
         <v>8</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="37" t="s">
+    <row r="16" customHeight="1" spans="2:5">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="9">
         <f>SUM(C4:C14)</f>
         <v>100</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2507,8 +3303,8 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="11" sheetId="8" r:id="rId8"/>
     <sheet name="12" sheetId="9" r:id="rId9"/>
     <sheet name="13" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
+    <sheet name="17" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -26,6 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'11'!$A$1:$E$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'12'!$A$1:$E$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'13'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'17'!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'3'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'4'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="47">
   <si>
     <t>驗證功效</t>
   </si>
@@ -175,6 +177,14 @@
   </si>
   <si>
     <t>炒白术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金樱子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +236,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -540,7 +558,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,6 +662,18 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,6 +699,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,17 +1032,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1126,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1147,19 +1180,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1310,6 +1343,162 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="36">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15">
+        <f>COUNTA(B4:B13)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="34">
+        <f>SUM(C4:C13)</f>
+        <v>40</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1321,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1359,17 +1548,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="36"/>
+      <c r="C1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="40"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
@@ -1583,15 +1772,15 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1714,17 +1903,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1863,17 +2052,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2018,17 +2207,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2180,17 +2369,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2342,19 +2531,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2542,19 +2731,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">

--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>驗證功效</t>
   </si>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>山药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>芡实</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -671,6 +675,9 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,9 +706,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,17 +1036,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1180,19 +1184,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1346,7 +1350,7 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1366,17 +1370,17 @@
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
@@ -1403,18 +1407,22 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="36">
+        <v>10</v>
+      </c>
       <c r="D6" s="36"/>
       <c r="E6" s="10"/>
     </row>
@@ -1466,7 +1474,7 @@
       </c>
       <c r="C14" s="15">
         <f>COUNTA(B4:B13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
@@ -1548,17 +1556,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="40"/>
+      <c r="C1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="41"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
@@ -1772,15 +1780,15 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1903,17 +1911,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2052,17 +2060,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2207,17 +2215,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2369,17 +2377,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2531,19 +2539,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2731,19 +2739,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">

--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="10"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="11" sheetId="8" r:id="rId8"/>
     <sheet name="12" sheetId="9" r:id="rId9"/>
     <sheet name="13" sheetId="10" r:id="rId10"/>
-    <sheet name="17" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
+    <sheet name="17" sheetId="11" r:id="rId11"/>
+    <sheet name="18" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -33,13 +34,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'8'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'9'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'18'!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>驗證功效</t>
   </si>
@@ -162,102 +164,420 @@
     <t>木香</t>
   </si>
   <si>
+    <t>炒白芍</t>
+  </si>
+  <si>
+    <t>炒白术</t>
+  </si>
+  <si>
     <t>枳殼</t>
   </si>
   <si>
     <t>桔梗</t>
   </si>
   <si>
-    <t>当归</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒白芍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒白术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>金樱子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>芡实</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黨參</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -546,183 +866,447 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="54">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="18" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 5" xfId="1"/>
+  <cellStyles count="54">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="11"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="14" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="常规 5" xfId="19"/>
+    <cellStyle name="Accent6" xfId="20" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="22" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="23" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="24" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="25" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="26" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="27" builtinId="28"/>
+    <cellStyle name="Bad" xfId="28" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Output" xfId="32" builtinId="21"/>
+    <cellStyle name="Note" xfId="33" builtinId="10"/>
+    <cellStyle name="Input" xfId="34" builtinId="20"/>
+    <cellStyle name="Good" xfId="35" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="36" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="37" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="40" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="42" builtinId="35"/>
+    <cellStyle name="Title" xfId="43" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="44" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="45" builtinId="53"/>
+    <cellStyle name="Currency" xfId="46" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="47" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="49" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="51" builtinId="17"/>
+    <cellStyle name="Comma" xfId="52" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="53" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -731,7 +1315,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1012,139 +1596,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1153,184 +1738,185 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="14">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="9">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="9">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>9</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>115</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1339,158 +1925,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="37" t="s">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="6">
-        <v>20</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="36">
-        <v>10</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="36">
-        <v>10</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="37" t="s">
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1499,248 +2086,420 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21">
+        <f>COUNTA(B4:B13)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>50</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="24" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.2518518518519" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="123" customHeight="1" spans="2:8">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="41"/>
+      <c r="C1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="19" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:8">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="22" t="s">
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="30">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="F3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="32">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="14">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="F4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="27">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="34">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:8">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="28" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="F5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="29">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="26" t="s">
+      <c r="G5" s="36">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="27">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="8" t="s">
+      <c r="G6" s="34">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:8">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:8">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:8">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
+      <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="21">
         <f>COUNTA(B3:B12)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="39">
         <f>COUNTA(F3:F12)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="2:8">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <f>SUM(C3:C12)</f>
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="40">
         <f>SUM(G3:G12)</f>
         <v>50</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1749,129 +2508,130 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="41"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1880,147 +2640,148 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="41"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2029,153 +2790,154 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="41"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>50</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2184,160 +2946,161 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>30</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2346,160 +3109,161 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="21">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2508,198 +3272,199 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
+      <c r="C14" s="18">
+        <v>10</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="21">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <f>SUM(C4:C14)</f>
         <v>130</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2708,186 +3473,187 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="21">
         <f>COUNTA(B4:B14)</f>
         <v>8</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <f>SUM(C4:C14)</f>
         <v>100</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2896,8 +3662,8 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="12"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="13" sheetId="10" r:id="rId10"/>
     <sheet name="17" sheetId="11" r:id="rId11"/>
     <sheet name="18" sheetId="12" r:id="rId12"/>
-    <sheet name="20" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId15"/>
+    <sheet name="20" sheetId="13" r:id="rId13"/>
+    <sheet name="21" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -37,13 +38,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'8'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'9'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'21'!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>驗證功效</t>
   </si>
@@ -188,78 +190,397 @@
   </si>
   <si>
     <t>合欢皮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜交藤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷芽</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -548,175 +869,448 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="55">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="21" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 5" xfId="5"/>
-    <cellStyle name="常规 6" xfId="1"/>
+  <cellStyles count="55">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="11"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="14" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="常规 5" xfId="19"/>
+    <cellStyle name="Accent6" xfId="20" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="22" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="23" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="24" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="25" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="26" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="27" builtinId="28"/>
+    <cellStyle name="Bad" xfId="28" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Output" xfId="32" builtinId="21"/>
+    <cellStyle name="Note" xfId="33" builtinId="10"/>
+    <cellStyle name="Input" xfId="34" builtinId="20"/>
+    <cellStyle name="Good" xfId="35" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="36" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="37" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="40" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="42" builtinId="35"/>
+    <cellStyle name="Title" xfId="43" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="44" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="45" builtinId="53"/>
+    <cellStyle name="Currency" xfId="46" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="47" builtinId="30"/>
+    <cellStyle name="常规 6" xfId="48"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="50" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="52" builtinId="17"/>
+    <cellStyle name="Comma" xfId="53" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="54" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -725,7 +1319,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1006,139 +1600,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1147,184 +1742,185 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="14">
         <v>15</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>9</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>115</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1333,158 +1929,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>20</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1493,162 +2090,163 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>20</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>50</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1657,170 +2255,171 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>6</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>60</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1829,248 +2428,438 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="66" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="14">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="19" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.2518518518519" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="123" customHeight="1" spans="2:8">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="37"/>
+      <c r="C1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:8">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="29">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="F3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="26">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+      <c r="G3" s="31">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="27" t="s">
+      <c r="C4" s="14">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="F4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="28">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="G4" s="33">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:8">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="29" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="F5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="30">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="27" t="s">
+      <c r="G5" s="35">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="28">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="G6" s="33">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:8">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:8">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:8">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="20">
         <f>COUNTA(B3:B12)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="38">
         <f>COUNTA(F3:F12)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="2:8">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <f>SUM(C3:C12)</f>
         <v>30</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="39">
         <f>SUM(G3:G12)</f>
         <v>50</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2079,129 +2868,130 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2210,147 +3000,148 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2359,153 +3150,154 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>50</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2514,160 +3306,161 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>30</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2676,160 +3469,161 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2838,198 +3632,199 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="12" t="s">
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
+      <c r="C14" s="17">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="20">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <f>SUM(C4:C14)</f>
         <v>130</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3038,186 +3833,187 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2518518518519" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="8" max="8" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="66" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="20">
         <f>COUNTA(B4:B14)</f>
         <v>8</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <f>SUM(C4:C14)</f>
         <v>100</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3226,8 +4022,8 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201610.xlsx
+++ b/用藥記錄/2016/201610.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="18" sheetId="12" r:id="rId12"/>
     <sheet name="20" sheetId="13" r:id="rId13"/>
     <sheet name="21" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet3" sheetId="16" r:id="rId16"/>
+    <sheet name="23" sheetId="17" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$15</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'18'!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'20'!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'21'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'23'!$A$1:$E$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'3'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'4'!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5'!$A$1:$E$30</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="49">
   <si>
     <t>驗證功效</t>
   </si>
@@ -200,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -563,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,13 +576,13 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,7 +591,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,7 +600,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -607,7 +609,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,13 +618,13 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,7 +633,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,34 +666,46 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,17 +1038,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1172,19 +1186,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1358,17 +1372,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1518,17 +1532,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1682,17 +1696,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1832,6 +1846,188 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15">
+        <f>COUNTA(B4:B13)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(C4:C13)</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1851,152 +2047,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="36">
+        <v>10</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="36">
+        <v>10</v>
+      </c>
+      <c r="D5" s="36"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="36">
+        <v>20</v>
+      </c>
+      <c r="D6" s="36"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="C7" s="36">
+        <v>20</v>
+      </c>
+      <c r="D7" s="36"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="36">
+        <v>10</v>
+      </c>
+      <c r="D8" s="36"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="9">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15">
+        <f>COUNTA(B4:B10)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="15">
-        <f>COUNTA(B4:B13)</f>
+      <c r="B12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
-        <f>SUM(C4:C13)</f>
-        <v>100</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="C12" s="34">
+        <f>SUM(C4:C10)</f>
+        <v>70</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2011,7 +2177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2024,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2062,17 +2228,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="36"/>
+      <c r="C1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="40"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
@@ -2286,15 +2452,15 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2417,17 +2583,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2566,17 +2732,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2721,17 +2887,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2883,17 +3049,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -3045,19 +3211,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -3245,19 +3411,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
